--- a/PCB/fanControl/RFQ/fanControl_stock.xlsx
+++ b/PCB/fanControl/RFQ/fanControl_stock.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bakad\source\repos\fanControl\PCB\fanControl\RFQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B98C18-EB80-40CB-B08B-1E6C94CADF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17BCDDC-BC14-4B9D-92F9-117299490F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="fanControl_RFQ1" sheetId="1" r:id="rId1"/>
-    <sheet name="fanControl_RFQ2_1" sheetId="5" r:id="rId2"/>
+    <sheet name="stock" sheetId="6" r:id="rId1"/>
+    <sheet name="fanControl_RFQ1" sheetId="1" r:id="rId2"/>
+    <sheet name="fanControl_RFQ2_1" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">fanControl_RFQ1!$A$1:$K$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fanControl_RFQ2_1!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fanControl_RFQ1!$A$1:$K$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">fanControl_RFQ2_1!$A$1:$N$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stock!$A$1:$K$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="298">
   <si>
     <t>Reference</t>
   </si>
@@ -922,6 +924,15 @@
   </si>
   <si>
     <t xml:space="preserve">R7 R8 R15 R21 R22 R23 R24 R25 R30 R34 R35 R38 R39 </t>
+  </si>
+  <si>
+    <t>0R</t>
+  </si>
+  <si>
+    <t>C100045</t>
+  </si>
+  <si>
+    <t>RC0805FR-070RL</t>
   </si>
 </sst>
 </file>
@@ -1476,14 +1487,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1796,11 +1807,1679 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7463E6FB-AFB1-4949-90AE-CE9BA08FB519}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" t="s">
+        <v>232</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17">
+        <v>1050170001</v>
+      </c>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>141</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F27" t="s">
+        <v>155</v>
+      </c>
+      <c r="G27" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H28" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" t="s">
+        <v>170</v>
+      </c>
+      <c r="G30" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" t="s">
+        <v>181</v>
+      </c>
+      <c r="H32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" t="s">
+        <v>185</v>
+      </c>
+      <c r="G33" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" t="s">
+        <v>197</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" t="s">
+        <v>203</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>204</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" t="s">
+        <v>208</v>
+      </c>
+      <c r="G37" t="s">
+        <v>209</v>
+      </c>
+      <c r="H37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>212</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F38" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" t="s">
+        <v>216</v>
+      </c>
+      <c r="H38" t="s">
+        <v>217</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" t="s">
+        <v>222</v>
+      </c>
+      <c r="G39" t="s">
+        <v>219</v>
+      </c>
+      <c r="H39" t="s">
+        <v>223</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G40" t="s">
+        <v>229</v>
+      </c>
+      <c r="H40" t="s">
+        <v>230</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" t="s">
+        <v>242</v>
+      </c>
+      <c r="G43" t="s">
+        <v>243</v>
+      </c>
+      <c r="H43" t="s">
+        <v>64</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" t="s">
+        <v>247</v>
+      </c>
+      <c r="E44" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" t="s">
+        <v>249</v>
+      </c>
+      <c r="G44" t="s">
+        <v>250</v>
+      </c>
+      <c r="H44" t="s">
+        <v>251</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" t="s">
+        <v>253</v>
+      </c>
+      <c r="G45">
+        <v>694106301002</v>
+      </c>
+      <c r="H45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>43</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E47" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" t="s">
+        <v>260</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>286</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" t="s">
+        <v>262</v>
+      </c>
+      <c r="F48" t="s">
+        <v>263</v>
+      </c>
+      <c r="G48" t="s">
+        <v>264</v>
+      </c>
+      <c r="H48" t="s">
+        <v>64</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>287</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" t="s">
+        <v>288</v>
+      </c>
+      <c r="F49" t="s">
+        <v>289</v>
+      </c>
+      <c r="G49" t="s">
+        <v>290</v>
+      </c>
+      <c r="H49" t="s">
+        <v>291</v>
+      </c>
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+      <c r="E50" t="s">
+        <v>268</v>
+      </c>
+      <c r="F50" t="s">
+        <v>269</v>
+      </c>
+      <c r="G50" t="s">
+        <v>270</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>271</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" t="s">
+        <v>272</v>
+      </c>
+      <c r="F51" t="s">
+        <v>273</v>
+      </c>
+      <c r="G51" t="s">
+        <v>274</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" t="s">
+        <v>138</v>
+      </c>
+      <c r="E52" t="s">
+        <v>278</v>
+      </c>
+      <c r="F52" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" t="s">
+        <v>280</v>
+      </c>
+      <c r="H52" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>295</v>
+      </c>
+      <c r="D53" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F53" t="s">
+        <v>296</v>
+      </c>
+      <c r="G53" t="s">
+        <v>297</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K53" xr:uid="{7463E6FB-AFB1-4949-90AE-CE9BA08FB519}"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{E9F6D936-1813-47E7-B657-345F6EC176C0}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{62210B75-87B6-4ABF-8122-84E9278A0507}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{18218616-9D4D-43CD-B14A-E485E1DE29B0}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{4AD345FB-4860-4DB5-B509-67FA6588B54A}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{CD09FAB4-657B-4DF1-B552-5E82D355247C}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{4BBD6283-D9E7-4DEB-9813-AA7E919C6750}"/>
+    <hyperlink ref="E11" r:id="rId7" xr:uid="{8097B161-7CAE-4D2B-BD4E-A00BDA1FDC42}"/>
+    <hyperlink ref="E12" r:id="rId8" xr:uid="{0415D567-AF66-464A-A153-5F282B5277A0}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{5A5E28D4-707C-4C72-8F75-D175D4384CDC}"/>
+    <hyperlink ref="E14" r:id="rId10" xr:uid="{0CF862AF-169C-4F0A-A8E0-2BC3A940CBDF}"/>
+    <hyperlink ref="E15" r:id="rId11" xr:uid="{E70F4478-C8CB-4EEE-83F1-5B6B0CF34C29}"/>
+    <hyperlink ref="E16" r:id="rId12" xr:uid="{577236C0-CD89-4136-89B4-B884674AC569}"/>
+    <hyperlink ref="E17" r:id="rId13" xr:uid="{EA0A78D7-1C9B-450A-B837-919A6825E8FA}"/>
+    <hyperlink ref="E20" r:id="rId14" xr:uid="{E8403F8E-0F9A-46AC-8649-2FC9410856EF}"/>
+    <hyperlink ref="E21" r:id="rId15" xr:uid="{4B952BE0-D2D2-46E8-B406-DA4F4AFB375C}"/>
+    <hyperlink ref="E22" r:id="rId16" xr:uid="{071B9695-AD01-41A5-8DD9-820D0F53B87C}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{B4B520A9-8431-4714-A233-CCCC10AEFE26}"/>
+    <hyperlink ref="E24" r:id="rId18" xr:uid="{52748AFB-421E-44A8-9B62-DA1EAC017186}"/>
+    <hyperlink ref="E25" r:id="rId19" xr:uid="{9F26C3C3-1A0A-494C-B057-7BC95937B651}"/>
+    <hyperlink ref="E26" r:id="rId20" xr:uid="{753550F2-83E3-4366-A4F3-12CD76431ACF}"/>
+    <hyperlink ref="E27" r:id="rId21" xr:uid="{027BE54D-58EE-4FCB-9000-DB4B77639ACB}"/>
+    <hyperlink ref="E28" r:id="rId22" xr:uid="{74334396-B735-43C8-A8CD-60A3A947803B}"/>
+    <hyperlink ref="E29" r:id="rId23" xr:uid="{D68590E4-6EEA-4F79-8985-AC141F54AE9B}"/>
+    <hyperlink ref="E30" r:id="rId24" xr:uid="{FE4AD633-037F-4E58-99F4-3F76D16B8E28}"/>
+    <hyperlink ref="E31" r:id="rId25" xr:uid="{7F917A22-D419-44AC-B02B-C6347253EFE2}"/>
+    <hyperlink ref="E32" r:id="rId26" xr:uid="{E8939BE9-675F-4BDD-8A6B-EFD1479B2B30}"/>
+    <hyperlink ref="E33" r:id="rId27" xr:uid="{A75881F2-F704-4D48-85C9-FE7CCF27F56F}"/>
+    <hyperlink ref="E34" r:id="rId28" xr:uid="{6FCCE007-298B-4064-870B-7B6DBAED7569}"/>
+    <hyperlink ref="E35" r:id="rId29" xr:uid="{ED5E2779-E33E-48C7-AA80-5E27EF59E3FA}"/>
+    <hyperlink ref="E36" r:id="rId30" xr:uid="{DD229C8A-2B13-410E-86B2-B2A983D43921}"/>
+    <hyperlink ref="E37" r:id="rId31" xr:uid="{AD1274CC-1D4F-4036-9686-2A27C105DFA9}"/>
+    <hyperlink ref="E38" r:id="rId32" xr:uid="{20AF4EFE-15AC-4633-BB72-8148B282BA50}"/>
+    <hyperlink ref="E39" r:id="rId33" xr:uid="{6EB15706-147C-403E-8207-171ED1AEE13D}"/>
+    <hyperlink ref="E40" r:id="rId34" xr:uid="{BF9F4F49-B5D9-45AD-BB43-EE9FE768880D}"/>
+    <hyperlink ref="J5" r:id="rId35" xr:uid="{C2D3CEB1-656A-4685-82BD-556D70F9B4A7}"/>
+    <hyperlink ref="J8" r:id="rId36" xr:uid="{0B59B73A-0FD6-4FA1-89BE-7F21F1BFA19A}"/>
+    <hyperlink ref="J18" r:id="rId37" xr:uid="{DE2B6A7E-3F2A-4310-B553-88E952BC70E2}"/>
+    <hyperlink ref="J19" r:id="rId38" xr:uid="{6CFA8BD4-57C6-4535-BB15-1425A8D1066A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,6 +3662,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
       <c r="Q5">
         <f>INDEX(L:L,MATCH("C88484",F:F,0),1)</f>
         <v>49</v>
@@ -2434,6 +4116,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2457,6 +4142,9 @@
       <c r="K19">
         <f t="shared" si="0"/>
         <v>5</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -3262,13 +4950,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC55287-76F5-4EDC-B1E5-1CDB247EA1B0}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3331,7 +5018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3364,7 +5051,7 @@
         <v>8</v>
       </c>
       <c r="M2">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F2,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F2,stock!F:F,0),1)</f>
         <v>10</v>
       </c>
       <c r="N2">
@@ -3405,12 +5092,12 @@
         <v>8</v>
       </c>
       <c r="M3">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F3,fanControl_RFQ1!F:F,0),1)</f>
-        <v>5</v>
+        <f>INDEX(stock!K:K,MATCH(F3,stock!F:F,0),1)</f>
+        <v>10</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N40" si="1">IF(ISNA(M3),-L3,M3-L3)</f>
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -3446,15 +5133,15 @@
         <v>12</v>
       </c>
       <c r="M4">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F4,fanControl_RFQ1!F:F,0),1)</f>
-        <v>4</v>
+        <f>INDEX(stock!K:K,MATCH(F4,stock!F:F,0),1)</f>
+        <v>9</v>
       </c>
       <c r="N4">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -3478,7 +5165,7 @@
         <v>4</v>
       </c>
       <c r="M5" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F5,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F5,stock!F:F,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="N5">
@@ -3486,7 +5173,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -3519,7 +5206,7 @@
         <v>4</v>
       </c>
       <c r="M6">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F6,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F6,stock!F:F,0),1)</f>
         <v>49</v>
       </c>
       <c r="N6">
@@ -3527,7 +5214,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -3560,7 +5247,7 @@
         <v>12</v>
       </c>
       <c r="M7">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F7,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F7,stock!F:F,0),1)</f>
         <v>47</v>
       </c>
       <c r="N7">
@@ -3568,7 +5255,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3592,7 +5279,7 @@
         <v>4</v>
       </c>
       <c r="M8" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F8,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F8,stock!F:F,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="N8">
@@ -3600,7 +5287,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -3633,7 +5320,7 @@
         <v>4</v>
       </c>
       <c r="M9">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F9,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F9,stock!F:F,0),1)</f>
         <v>5</v>
       </c>
       <c r="N9">
@@ -3641,7 +5328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -3674,7 +5361,7 @@
         <v>4</v>
       </c>
       <c r="M10">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F10,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F10,stock!F:F,0),1)</f>
         <v>4</v>
       </c>
       <c r="N10">
@@ -3682,7 +5369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -3715,7 +5402,7 @@
         <v>4</v>
       </c>
       <c r="M11">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F11,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F11,stock!F:F,0),1)</f>
         <v>9</v>
       </c>
       <c r="N11">
@@ -3755,16 +5442,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M12" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F12,fanControl_RFQ1!F:F,0),1)</f>
-        <v>#N/A</v>
+      <c r="M12">
+        <f>INDEX(stock!K:K,MATCH(F12,stock!F:F,0),1)</f>
+        <v>20</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -3797,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F13,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F13,stock!F:F,0),1)</f>
         <v>9</v>
       </c>
       <c r="N13">
@@ -3805,7 +5492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -3838,7 +5525,7 @@
         <v>4</v>
       </c>
       <c r="M14">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F14,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F14,stock!F:F,0),1)</f>
         <v>4</v>
       </c>
       <c r="N14">
@@ -3846,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>83</v>
       </c>
@@ -3879,7 +5566,7 @@
         <v>4</v>
       </c>
       <c r="M15">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F15,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F15,stock!F:F,0),1)</f>
         <v>4</v>
       </c>
       <c r="N15">
@@ -3887,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -3920,7 +5607,7 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F16,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F16,stock!F:F,0),1)</f>
         <v>10</v>
       </c>
       <c r="N16">
@@ -3960,16 +5647,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M17" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F17,fanControl_RFQ1!F:F,0),1)</f>
-        <v>#N/A</v>
+      <c r="M17">
+        <f>INDEX(stock!K:K,MATCH(F17,stock!F:F,0),1)</f>
+        <v>10</v>
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -4002,7 +5689,7 @@
         <v>4</v>
       </c>
       <c r="M18">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F18,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F18,stock!F:F,0),1)</f>
         <v>4</v>
       </c>
       <c r="N18">
@@ -4010,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -4043,7 +5730,7 @@
         <v>4</v>
       </c>
       <c r="M19" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F19,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F19,stock!F:F,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="N19">
@@ -4051,7 +5738,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>107</v>
       </c>
@@ -4075,7 +5762,7 @@
         <v>4</v>
       </c>
       <c r="M20" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F20,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F20,stock!F:F,0),1)</f>
         <v>#N/A</v>
       </c>
       <c r="N20">
@@ -4083,7 +5770,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -4116,7 +5803,7 @@
         <v>4</v>
       </c>
       <c r="M21">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F21,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F21,stock!F:F,0),1)</f>
         <v>4</v>
       </c>
       <c r="N21">
@@ -4156,13 +5843,13 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="M22" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F22,fanControl_RFQ1!F:F,0),1)</f>
-        <v>#N/A</v>
+      <c r="M22">
+        <f>INDEX(stock!K:K,MATCH(F22,stock!F:F,0),1)</f>
+        <v>10</v>
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>-8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -4197,13 +5884,13 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="M23" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F23,fanControl_RFQ1!F:F,0),1)</f>
-        <v>#N/A</v>
+      <c r="M23">
+        <f>INDEX(stock!K:K,MATCH(F23,stock!F:F,0),1)</f>
+        <v>20</v>
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4238,16 +5925,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M24" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F24,fanControl_RFQ1!F:F,0),1)</f>
-        <v>#N/A</v>
+      <c r="M24">
+        <f>INDEX(stock!K:K,MATCH(F24,stock!F:F,0),1)</f>
+        <v>5</v>
       </c>
       <c r="N24">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>265</v>
       </c>
@@ -4280,7 +5967,7 @@
         <v>28</v>
       </c>
       <c r="M25">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F25,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F25,stock!F:F,0),1)</f>
         <v>98</v>
       </c>
       <c r="N25">
@@ -4288,7 +5975,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>142</v>
       </c>
@@ -4321,7 +6008,7 @@
         <v>20</v>
       </c>
       <c r="M26">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F26,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F26,stock!F:F,0),1)</f>
         <v>95</v>
       </c>
       <c r="N26">
@@ -4329,7 +6016,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>157</v>
       </c>
@@ -4365,7 +6052,7 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F27,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F27,stock!F:F,0),1)</f>
         <v>100</v>
       </c>
       <c r="N27">
@@ -4408,16 +6095,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="M28" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F28,fanControl_RFQ1!F:F,0),1)</f>
-        <v>#N/A</v>
+      <c r="M28">
+        <f>INDEX(stock!K:K,MATCH(F28,stock!F:F,0),1)</f>
+        <v>100</v>
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>293</v>
       </c>
@@ -4450,7 +6137,7 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F29,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F29,stock!F:F,0),1)</f>
         <v>99</v>
       </c>
       <c r="N29">
@@ -4493,16 +6180,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M30" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F30,fanControl_RFQ1!F:F,0),1)</f>
-        <v>#N/A</v>
+      <c r="M30">
+        <f>INDEX(stock!K:K,MATCH(F30,stock!F:F,0),1)</f>
+        <v>100</v>
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>275</v>
       </c>
@@ -4538,7 +6225,7 @@
         <v>16</v>
       </c>
       <c r="M31">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F31,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F31,stock!F:F,0),1)</f>
         <v>100</v>
       </c>
       <c r="N31">
@@ -4581,16 +6268,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="M32" t="e">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F32,fanControl_RFQ1!F:F,0),1)</f>
-        <v>#N/A</v>
+      <c r="M32">
+        <f>INDEX(stock!K:K,MATCH(F32,stock!F:F,0),1)</f>
+        <v>100</v>
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>-12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>294</v>
       </c>
@@ -4623,7 +6310,7 @@
         <v>52</v>
       </c>
       <c r="M33">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F33,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F33,stock!F:F,0),1)</f>
         <v>93</v>
       </c>
       <c r="N33">
@@ -4631,7 +6318,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4664,7 +6351,7 @@
         <v>4</v>
       </c>
       <c r="M34">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F34,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F34,stock!F:F,0),1)</f>
         <v>100</v>
       </c>
       <c r="N34">
@@ -4672,7 +6359,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>192</v>
       </c>
@@ -4705,7 +6392,7 @@
         <v>4</v>
       </c>
       <c r="M35">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F35,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F35,stock!F:F,0),1)</f>
         <v>9</v>
       </c>
       <c r="N35">
@@ -4746,15 +6433,15 @@
         <v>4</v>
       </c>
       <c r="M36">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F36,fanControl_RFQ1!F:F,0),1)</f>
-        <v>2</v>
+        <f>INDEX(stock!K:K,MATCH(F36,stock!F:F,0),1)</f>
+        <v>4</v>
       </c>
       <c r="N36">
         <f t="shared" si="1"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -4787,7 +6474,7 @@
         <v>4</v>
       </c>
       <c r="M37">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F37,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F37,stock!F:F,0),1)</f>
         <v>5</v>
       </c>
       <c r="N37">
@@ -4795,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>211</v>
       </c>
@@ -4828,7 +6515,7 @@
         <v>4</v>
       </c>
       <c r="M38">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F38,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F38,stock!F:F,0),1)</f>
         <v>4</v>
       </c>
       <c r="N38">
@@ -4836,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>218</v>
       </c>
@@ -4869,7 +6556,7 @@
         <v>4</v>
       </c>
       <c r="M39">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F39,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F39,stock!F:F,0),1)</f>
         <v>4</v>
       </c>
       <c r="N39">
@@ -4877,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>224</v>
       </c>
@@ -4910,7 +6597,7 @@
         <v>4</v>
       </c>
       <c r="M40">
-        <f>INDEX(fanControl_RFQ1!L:L,MATCH(F40,fanControl_RFQ1!F:F,0),1)</f>
+        <f>INDEX(stock!K:K,MATCH(F40,stock!F:F,0),1)</f>
         <v>5</v>
       </c>
       <c r="N40">
@@ -4919,29 +6606,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N40" xr:uid="{9AC55287-76F5-4EDC-B1E5-1CDB247EA1B0}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="LCSC"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="13">
-      <filters>
-        <filter val="-12"/>
-        <filter val="-16"/>
-        <filter val="-2"/>
-        <filter val="-20"/>
-        <filter val="-3"/>
-        <filter val="-4"/>
-        <filter val="-8"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:N40" xr:uid="{9AC55287-76F5-4EDC-B1E5-1CDB247EA1B0}"/>
   <conditionalFormatting sqref="N2:N40">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/PCB/fanControl/RFQ/fanControl_stock.xlsx
+++ b/PCB/fanControl/RFQ/fanControl_stock.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bakad\source\repos\fanControl\PCB\fanControl\RFQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17BCDDC-BC14-4B9D-92F9-117299490F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0A6D26-1881-4D81-AEF9-707F58B248D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">fanControl_RFQ1!$A$1:$K$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">fanControl_RFQ2_1!$A$1:$N$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stock!$A$1:$K$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">stock!$A$1:$K$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="305">
   <si>
     <t>Reference</t>
   </si>
@@ -933,6 +933,27 @@
   </si>
   <si>
     <t>RC0805FR-070RL</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>BC547</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_THT:TO-92_Inline_Wide</t>
+  </si>
+  <si>
+    <t>BC547B</t>
+  </si>
+  <si>
+    <t>CDIL</t>
+  </si>
+  <si>
+    <t>https://arwill.hu/termekek/felvezetok/tranzisztorok/bc/bc547b-tranzisztor-160303/</t>
+  </si>
+  <si>
+    <t>https://arwill.hu/forras/termek/felvezetok/tranzisztorok/bc/bc547b-tranzisztor-160303.pdf</t>
   </si>
 </sst>
 </file>
@@ -1808,11 +1829,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7463E6FB-AFB1-4949-90AE-CE9BA08FB519}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,7 +1989,7 @@
         <v>34</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2055,7 +2076,7 @@
         <v>45</v>
       </c>
       <c r="K8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2366,7 +2387,7 @@
         <v>106</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2389,7 +2410,7 @@
         <v>109</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3066,370 +3087,325 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D41" t="s">
-        <v>32</v>
+        <v>60</v>
+      </c>
+      <c r="E41" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" t="s">
+        <v>242</v>
+      </c>
+      <c r="G41" t="s">
+        <v>243</v>
+      </c>
+      <c r="H41" t="s">
+        <v>64</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="K41">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>245</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>247</v>
+      </c>
+      <c r="E42" t="s">
+        <v>248</v>
+      </c>
+      <c r="F42" t="s">
+        <v>249</v>
+      </c>
+      <c r="G42" t="s">
+        <v>250</v>
+      </c>
+      <c r="H42" t="s">
+        <v>251</v>
       </c>
       <c r="I42" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F43" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G43" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
       </c>
       <c r="K43">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="D44" t="s">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G44" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H44" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
       </c>
       <c r="K44">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>287</v>
       </c>
       <c r="D45" t="s">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>253</v>
-      </c>
-      <c r="G45">
-        <v>694106301002</v>
+        <v>288</v>
+      </c>
+      <c r="F45" t="s">
+        <v>289</v>
+      </c>
+      <c r="G45" t="s">
+        <v>290</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="I45" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>292</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
+        <v>268</v>
+      </c>
+      <c r="F46" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" t="s">
+        <v>270</v>
+      </c>
+      <c r="H46" t="s">
+        <v>16</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>257</v>
+        <v>153</v>
       </c>
       <c r="D47" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E47" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F47" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G47" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="H47" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E48" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="F48" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="G48" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="H48" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
       </c>
       <c r="K48">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>129</v>
+      <c r="A49" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" t="s">
-        <v>288</v>
+        <v>295</v>
+      </c>
+      <c r="D49" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
       </c>
       <c r="F49" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H49" t="s">
-        <v>291</v>
+        <v>16</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B50">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="E50" t="s">
-        <v>268</v>
-      </c>
-      <c r="F50" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G50" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="H50" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="I50" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="K50">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>271</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" t="s">
-        <v>138</v>
-      </c>
-      <c r="E51" t="s">
-        <v>272</v>
-      </c>
-      <c r="F51" t="s">
-        <v>273</v>
-      </c>
-      <c r="G51" t="s">
-        <v>274</v>
-      </c>
-      <c r="H51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>277</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>183</v>
-      </c>
-      <c r="D52" t="s">
-        <v>138</v>
-      </c>
-      <c r="E52" t="s">
-        <v>278</v>
-      </c>
-      <c r="F52" t="s">
-        <v>279</v>
-      </c>
-      <c r="G52" t="s">
-        <v>280</v>
-      </c>
-      <c r="H52" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" t="s">
-        <v>17</v>
-      </c>
-      <c r="K52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>295</v>
-      </c>
-      <c r="D53" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F53" t="s">
-        <v>296</v>
-      </c>
-      <c r="G53" t="s">
-        <v>297</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53">
-        <v>100</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K53" xr:uid="{7463E6FB-AFB1-4949-90AE-CE9BA08FB519}"/>
+  <autoFilter ref="A1:K50" xr:uid="{7463E6FB-AFB1-4949-90AE-CE9BA08FB519}"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{E9F6D936-1813-47E7-B657-345F6EC176C0}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{62210B75-87B6-4ABF-8122-84E9278A0507}"/>
@@ -3469,6 +3445,7 @@
     <hyperlink ref="J8" r:id="rId36" xr:uid="{0B59B73A-0FD6-4FA1-89BE-7F21F1BFA19A}"/>
     <hyperlink ref="J18" r:id="rId37" xr:uid="{DE2B6A7E-3F2A-4310-B553-88E952BC70E2}"/>
     <hyperlink ref="J19" r:id="rId38" xr:uid="{6CFA8BD4-57C6-4535-BB15-1425A8D1066A}"/>
+    <hyperlink ref="J50" r:id="rId39" xr:uid="{08C7C7F2-BF9E-435B-952F-B86EFAEC292B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
